--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,10 +262,6 @@
     <t>Record details about an anatomical structure.  This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>ActSIte</t>
   </si>
   <si>
@@ -279,313 +275,317 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>BodyStructure.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>BodyStructure.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>BodyStructure.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>BodyStructure.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>BodyStructure.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>BodyStructure.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Bodystructure identifier</t>
+  </si>
+  <si>
+    <t>Identifier for this instance of the anatomical structure.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>Specific location  Cluster Optional (0..1) Cardinality: Mandatory, repeating, unordered (1..*)</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>BodyStructure.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this body site is in active use.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a body site entry as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>BodyStructure.morphology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of Structure</t>
+  </si>
+  <si>
+    <t>The kind of structure being represented by the body structure at `BodyStructure.location`.  This can define both normal and abnormal morphologies.</t>
+  </si>
+  <si>
+    <t>The minimum cardinality of 0 supports the use case of specifying a location without defining a morphology.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing anatomic morphology.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/bodystructure-code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>SPM-4/SPM-5</t>
+  </si>
+  <si>
+    <t>BodyStructure.location</t>
+  </si>
+  <si>
+    <t>Body site</t>
+  </si>
+  <si>
+    <t>The anatomical location or region of the specimen, lesion, or body structure.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>Name of location</t>
+  </si>
+  <si>
+    <t>OBX-20/SPM-8/SPM-10</t>
+  </si>
+  <si>
+    <t>BodyStructure.locationQualifier</t>
+  </si>
+  <si>
+    <t>Body site modifier</t>
+  </si>
+  <si>
+    <t>Qualifier to refine the anatomical location.  These include qualifiers for laterality, relative location, directionality, number, and plane.</t>
+  </si>
+  <si>
+    <t>Concepts modifying the anatomic location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/bodystructure-relative-location</t>
+  </si>
+  <si>
+    <t>Combines Side, Numerical identifier, Anatomical plane,and Aspect</t>
+  </si>
+  <si>
+    <t>No distinct element defined in V2.x. The IHE Radiology Technical Framework directs the use of OBR-15-specimen source to contain laterality for imaging studies./SPM-9</t>
+  </si>
+  <si>
+    <t>BodyStructure.description</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>BodyStructure.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>BodyStructure.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>BodyStructure.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>BodyStructure.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>BodyStructure.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>BodyStructure.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>BodyStructure.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Bodystructure identifier</t>
-  </si>
-  <si>
-    <t>Identifier for this instance of the anatomical structure.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>Specific location  Cluster Optional (0..1) Cardinality: Mandatory, repeating, unordered (1..*)</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>BodyStructure.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this body site is in active use.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a body site entry as not to be used because it was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>BodyStructure.morphology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of Structure</t>
-  </si>
-  <si>
-    <t>The kind of structure being represented by the body structure at `BodyStructure.location`.  This can define both normal and abnormal morphologies.</t>
-  </si>
-  <si>
-    <t>The minimum cardinality of 0 supports the use case of specifying a location without defining a morphology.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes describing anatomic morphology.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/bodystructure-code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>SPM-4/SPM-5</t>
-  </si>
-  <si>
-    <t>BodyStructure.location</t>
-  </si>
-  <si>
-    <t>Body site</t>
-  </si>
-  <si>
-    <t>The anatomical location or region of the specimen, lesion, or body structure.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>Name of location</t>
-  </si>
-  <si>
-    <t>OBX-20/SPM-8/SPM-10</t>
-  </si>
-  <si>
-    <t>BodyStructure.locationQualifier</t>
-  </si>
-  <si>
-    <t>Body site modifier</t>
-  </si>
-  <si>
-    <t>Qualifier to refine the anatomical location.  These include qualifiers for laterality, relative location, directionality, number, and plane.</t>
-  </si>
-  <si>
-    <t>Concepts modifying the anatomic location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/bodystructure-relative-location</t>
-  </si>
-  <si>
-    <t>Combines Side, Numerical identifier, Anatomical plane,and Aspect</t>
-  </si>
-  <si>
-    <t>No distinct element defined in V2.x. The IHE Radiology Technical Framework directs the use of OBR-15-specimen source to contain laterality for imaging studies./SPM-9</t>
-  </si>
-  <si>
-    <t>BodyStructure.description</t>
   </si>
   <si>
     <t>Text description</t>
@@ -978,42 +978,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="57.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.67578125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="57.8984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="44.5078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="44.51171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="155.56640625" customWidth="true" bestFit="true"/>
@@ -1232,13 +1232,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1260,28 +1260,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1331,13 +1331,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1371,25 +1371,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1440,19 +1440,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1480,28 +1480,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1551,19 +1551,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1591,7 +1591,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -1603,16 +1603,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1638,43 +1638,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -1691,18 +1691,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -1714,16 +1714,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1773,22 +1773,22 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -1802,11 +1802,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1825,16 +1825,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1884,7 +1884,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -1899,7 +1899,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -1913,11 +1913,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1936,16 +1936,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1995,7 +1995,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2007,10 +2007,10 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2024,11 +2024,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2041,25 +2041,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -2108,7 +2108,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2120,10 +2120,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2157,16 +2157,16 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2217,7 +2217,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2229,16 +2229,16 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2257,38 +2257,38 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="Q12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2332,28 +2332,28 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2369,31 +2369,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2419,14 +2419,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2443,19 +2443,19 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -2464,15 +2464,15 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2480,28 +2480,28 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2528,14 +2528,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2552,36 +2552,36 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2604,13 +2604,13 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2637,14 +2637,14 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -2673,24 +2673,24 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2701,19 +2701,19 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>184</v>
@@ -2772,19 +2772,19 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>187</v>
@@ -2793,7 +2793,7 @@
         <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>189</v>
@@ -2893,7 +2893,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>194</v>
@@ -2902,7 +2902,7 @@
         <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>196</v>
@@ -2918,19 +2918,19 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>198</v>
@@ -2993,16 +2993,16 @@
         <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>201</v>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="206">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T12:36:42+00:00</t>
+    <t>2023-03-22T15:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -254,6 +257,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Specific and identified anatomical structure</t>
@@ -969,7 +976,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -979,44 +986,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="57.8984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.8984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.6796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="44.51171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="155.56640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="155.56640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1137,19 +1144,22 @@
       <c r="AM1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>76</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
@@ -1157,73 +1167,73 @@
         <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -1232,586 +1242,604 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
@@ -1819,75 +1847,75 @@
         <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -1896,33 +1924,36 @@
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>77</v>
       </c>
@@ -1930,75 +1961,75 @@
         <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2007,33 +2038,36 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2041,77 +2075,77 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2120,33 +2154,36 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2154,73 +2191,73 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2229,368 +2266,380 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>158</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y13" t="s" s="2">
+      <c r="L14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>174</v>
+      <c r="AN14" t="s" s="2">
+        <v>176</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
@@ -2598,73 +2647,73 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2673,144 +2722,150 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
@@ -2818,73 +2873,73 @@
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2893,132 +2948,138 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>167</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM18">
+  <autoFilter ref="A1:AN18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/BodyStructure</t>
+    <t>https://www.vision-zero-oncology.de/fhir/StructureDefinition/body-structure-base</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -422,33 +422,57 @@
     <t>BodyStructure.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.vision-zero-oncology.de/fhir/StructureDefinition/diagnosis}
+</t>
+  </si>
+  <si>
+    <t>Diagnosis the body structure refers to</t>
+  </si>
+  <si>
+    <t>Enables to reference a diagnosis &lt;Condition&gt; the body structure refers to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>BodyStructure.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>BodyStructure.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +480,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -475,6 +502,10 @@
     <t>Identifier for this instance of the anatomical structure.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
@@ -484,13 +515,458 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>BodyStructure.active</t>
+    <t>BodyStructure.identifier:bodyStructureIdentifier</t>
+  </si>
+  <si>
+    <t>bodyStructureIdentifier</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.id</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.extension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.use</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/resource-types"/&gt;
+    &lt;code value="BodyStructure"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.id</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.id</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.extension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.text</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.system</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.value</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.period</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.assigner</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>BodyStructure.active</t>
+  </si>
+  <si>
     <t>Whether this record is in active use</t>
   </si>
   <si>
@@ -515,10 +991,6 @@
     <t>BodyStructure.morphology</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Kind of Structure</t>
   </si>
   <si>
@@ -589,10 +1061,6 @@
   </si>
   <si>
     <t>BodyStructure.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Text description</t>
@@ -976,7 +1444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -985,9 +1453,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="68.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -995,7 +1463,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1004,23 +1472,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.8984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="155.56640625" customWidth="true" bestFit="true"/>
@@ -1951,7 +2419,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1970,17 +2438,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2017,16 +2483,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2044,7 +2508,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2061,11 +2525,13 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2075,29 +2541,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2145,7 +2607,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2154,13 +2616,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -2174,14 +2636,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2194,22 +2656,26 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2257,7 +2723,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2269,16 +2735,16 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -2286,10 +2752,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2297,91 +2763,83 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2390,10 +2848,10 @@
         <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>158</v>
@@ -2407,9 +2865,11 @@
         <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
@@ -2421,7 +2881,7 @@
         <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
@@ -2430,17 +2890,15 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -2465,13 +2923,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -2489,13 +2947,13 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
@@ -2504,24 +2962,24 @@
         <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2529,28 +2987,28 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2577,13 +3035,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -2601,7 +3059,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2613,31 +3071,31 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2656,15 +3114,17 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -2689,31 +3149,31 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2725,27 +3185,27 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2762,24 +3222,26 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -2788,7 +3250,7 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>79</v>
@@ -2803,13 +3265,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -2842,24 +3304,24 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2870,7 +3332,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -2879,19 +3341,23 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -2900,7 +3366,7 @@
         <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>79</v>
@@ -2915,13 +3381,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -2939,13 +3405,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -2954,13 +3420,13 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>198</v>
@@ -2971,7 +3437,7 @@
         <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2979,28 +3445,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3051,10 +3517,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3063,23 +3529,2419 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>205</v>
+      <c r="AK20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN18">
+  <autoFilter ref="A1:AN39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3089,7 +5951,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -502,7 +502,7 @@
     <t>Identifier for this instance of the anatomical structure.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="360">
   <si>
     <t>Property</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Profile Tumor</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Profile of a tumor</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1318,123 +1324,123 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1496,4448 +1502,4448 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="320">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T12:55:59+00:00</t>
+    <t>2023-06-14T11:38:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,126 +130,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Open EHR Archetype Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">anatomical location
@@ -1250,10 +1130,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1450,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1463,11 +1343,10 @@
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="77.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1479,4475 +1358,4353 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.6796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="155.56640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AM1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="M6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>359</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN39">
+  <autoFilter ref="A1:AN38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5957,7 +5714,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>Record details about an anatomical structure.  This resource may be used when a coded concept does not provide the necessary detail needed for the use case.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>ActSIte</t>
@@ -1476,13 +1480,13 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>41</v>
@@ -1493,10 +1497,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1507,7 +1511,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -1516,19 +1520,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1578,13 +1582,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1607,10 +1611,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1621,7 +1625,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -1630,16 +1634,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1690,19 +1694,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -1719,10 +1723,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1733,28 +1737,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1804,19 +1808,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -1833,10 +1837,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1847,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -1859,16 +1863,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1894,13 +1898,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -1918,19 +1922,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -1947,21 +1951,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -1973,16 +1977,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2032,22 +2036,22 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>41</v>
@@ -2061,14 +2065,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2087,16 +2091,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2146,7 +2150,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2161,7 +2165,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -2175,10 +2179,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2201,13 +2205,13 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2246,17 +2250,17 @@
         <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2268,7 +2272,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2285,13 +2289,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>41</v>
@@ -2304,7 +2308,7 @@
         <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>41</v>
@@ -2313,13 +2317,13 @@
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2370,7 +2374,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2379,10 +2383,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2399,14 +2403,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2419,25 +2423,25 @@
         <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2486,7 +2490,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2498,10 +2502,10 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
@@ -2515,10 +2519,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2526,7 +2530,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2538,16 +2542,16 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2586,17 +2590,17 @@
         <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2608,16 +2612,16 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2625,23 +2629,23 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
@@ -2650,16 +2654,16 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2710,7 +2714,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -2722,16 +2726,16 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2739,10 +2743,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2753,7 +2757,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
@@ -2765,13 +2769,13 @@
         <v>41</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2822,13 +2826,13 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
@@ -2837,7 +2841,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2851,14 +2855,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2877,16 +2881,16 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2924,19 +2928,19 @@
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2948,10 +2952,10 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -2965,10 +2969,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2979,31 +2983,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3013,7 +3017,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3028,13 +3032,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3052,22 +3056,22 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3076,15 +3080,15 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3092,10 +3096,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3104,22 +3108,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3129,7 +3133,7 @@
         <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>41</v>
@@ -3144,13 +3148,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -3168,22 +3172,22 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3192,15 +3196,15 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3211,7 +3215,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3223,13 +3227,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3280,13 +3284,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -3295,7 +3299,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3309,14 +3313,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3335,16 +3339,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3382,19 +3386,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3406,10 +3410,10 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3423,10 +3427,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3446,22 +3450,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3510,7 +3514,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3522,10 +3526,10 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3534,15 +3538,15 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3553,7 +3557,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3565,13 +3569,13 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3622,13 +3626,13 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
@@ -3637,7 +3641,7 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3651,14 +3655,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3677,16 +3681,16 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3724,19 +3728,19 @@
         <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3748,10 +3752,10 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3765,10 +3769,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3776,10 +3780,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3788,22 +3792,22 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -3852,22 +3856,22 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3876,15 +3880,15 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3895,7 +3899,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -3904,19 +3908,19 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3966,22 +3970,22 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -3990,15 +3994,15 @@
         <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4006,10 +4010,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4018,20 +4022,20 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4080,22 +4084,22 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4104,15 +4108,15 @@
         <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4123,7 +4127,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4132,20 +4136,20 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4194,22 +4198,22 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4218,15 +4222,15 @@
         <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4237,7 +4241,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4246,22 +4250,22 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4310,22 +4314,22 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4334,15 +4338,15 @@
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4353,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4362,22 +4366,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4426,22 +4430,22 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4450,15 +4454,15 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4469,7 +4473,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4478,22 +4482,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4506,7 +4510,7 @@
         <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>41</v>
@@ -4542,22 +4546,22 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4566,15 +4570,15 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4582,10 +4586,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4594,19 +4598,19 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4620,7 +4624,7 @@
         <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>41</v>
@@ -4656,22 +4660,22 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4680,15 +4684,15 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4699,7 +4703,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4708,16 +4712,16 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4768,22 +4772,22 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4792,15 +4796,15 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4811,7 +4815,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -4820,19 +4824,19 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4882,22 +4886,22 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -4906,15 +4910,15 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4925,103 +4929,103 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5029,10 +5033,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5040,31 +5044,31 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5090,13 +5094,13 @@
         <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>41</v>
@@ -5114,19 +5118,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -5135,18 +5139,18 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5154,28 +5158,28 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5202,13 +5206,13 @@
         <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>41</v>
@@ -5226,39 +5230,39 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5281,13 +5285,13 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5314,13 +5318,13 @@
         <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>41</v>
@@ -5338,7 +5342,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5350,27 +5354,27 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5381,7 +5385,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5390,19 +5394,19 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5452,39 +5456,39 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5507,13 +5511,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5564,7 +5568,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5576,27 +5580,27 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5604,28 +5608,28 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5676,31 +5680,31 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor.xlsx
+++ b/StructureDefinition-tumor.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="325">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:02+00:00</t>
+    <t>2023-12-13T13:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,6 +130,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Open EHR Archetype Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">anatomical location
@@ -354,6 +474,38 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:included-structure</t>
+  </si>
+  <si>
+    <t>included-structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure}
+</t>
+  </si>
+  <si>
+    <t>Included Structure</t>
+  </si>
+  <si>
+    <t>Description of the included Structure of the Body Structure</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:excluded-structure</t>
+  </si>
+  <si>
+    <t>excluded-structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.excludedStructure}
+</t>
+  </si>
+  <si>
+    <t>Excluded Structure</t>
+  </si>
+  <si>
+    <t>Description of the excluded Structure of the Body Structure</t>
   </si>
   <si>
     <t>BodyStructure.modifierExtension</t>
@@ -575,286 +727,148 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.coding.userSelected</t>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.type.text</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.system</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.value</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.period</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier:bodyStructureIdentifier.assigner</t>
+  </si>
+  <si>
+    <t>BodyStructure.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>BodyStructure.active</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.type.text</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.system</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.value</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.period</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier:bodyStructureIdentifier.assigner</t>
-  </si>
-  <si>
-    <t>BodyStructure.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>BodyStructure.active</t>
   </si>
   <si>
     <t>Whether this record is in active use</t>
@@ -1334,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1343,16 +1357,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.28125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1362,4353 +1377,3903 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.6796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="13.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="155.56640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>212</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>250</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>258</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN38">
+  <autoFilter ref="A1:AN34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5718,7 +5283,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
